--- a/evaluation_for_ds_course/Kaavioita.xlsx
+++ b/evaluation_for_ds_course/Kaavioita.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a9ea9677b856103/Distributed Systems 2022/GitHub/evaluation_for_ds_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{FC129B0D-E8CF-5E46-B816-F574B785BB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80DB37F2-4D41-48B0-917E-B867CD05C92E}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="13_ncr:1_{FC129B0D-E8CF-5E46-B816-F574B785BB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80CF35B8-CDF6-48BD-B0A6-6E28F743AA9B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{755D7349-032B-A148-871C-30EE62C7F95B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{755D7349-032B-A148-871C-30EE62C7F95B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>Mittauksiin meni  534.6032197</t>
   </si>
@@ -94,6 +95,84 @@
   </si>
   <si>
     <t>Avaraged of all the runs</t>
+  </si>
+  <si>
+    <t>Individual test times per test computer used</t>
+  </si>
+  <si>
+    <t>4 processes</t>
+  </si>
+  <si>
+    <t>8 processes</t>
+  </si>
+  <si>
+    <t>Case 7</t>
+  </si>
+  <si>
+    <t>Interl i5-6600K @3.50GHz</t>
+  </si>
+  <si>
+    <t>Mittauksiinmeni176,6899405</t>
+  </si>
+  <si>
+    <t>Mittauksiinmeni148,5168567</t>
+  </si>
+  <si>
+    <t>Mittauksiinmeni144,6942207</t>
+  </si>
+  <si>
+    <t>Mittauksiinmeni174,4511791</t>
+  </si>
+  <si>
+    <t>Omakone12</t>
+  </si>
+  <si>
+    <t>Ainonkone12</t>
+  </si>
+  <si>
+    <t>salmiserver4</t>
+  </si>
+  <si>
+    <t>linux4</t>
+  </si>
+  <si>
+    <t>macbook2</t>
+  </si>
+  <si>
+    <t>5600G</t>
+  </si>
+  <si>
+    <t>i5 6600K</t>
+  </si>
+  <si>
+    <t>Ainonkone 12, hubi omalla</t>
+  </si>
+  <si>
+    <t>Dual core i5, 2.7GHz</t>
+  </si>
+  <si>
+    <t>5600X</t>
+  </si>
+  <si>
+    <t>Mittauksiinmeni359,9860722</t>
+  </si>
+  <si>
+    <t>Number or workers/PC</t>
+  </si>
+  <si>
+    <t>1PC/12 workers</t>
+  </si>
+  <si>
+    <t>2PC/24 workers</t>
+  </si>
+  <si>
+    <t>3PC/28 workers</t>
+  </si>
+  <si>
+    <t>4PC/32 workers</t>
+  </si>
+  <si>
+    <t>5PC/34 workers</t>
   </si>
 </sst>
 </file>
@@ -7972,6 +8051,5623 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="1600"/>
+              <a:t>Execution times over worker counts, for constant amount of primes checked, with seven levels of prime difficulty, on one physical machine.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.1401249999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.647417033333266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.402284300000062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9836832333334593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1067555000001068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1277181333332735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4419723333333001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4960310333331199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6217839666664366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4775493333333198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6541096666667399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4787588666667901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4780441999998002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2924676666664601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8071132666668699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5275598999999067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4765483333330967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1473702000001234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.82456020000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4947691999999801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6630935333331667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5007116999995602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3489062333328234</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1902258333332565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6689561000004067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.8989774999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.652403033333268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.222751499999967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5229735666667068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1407563000001435</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1277075999997734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6235100666667801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6171193666668067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4409864999999502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4858258666666402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4696336666665901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6522074999998966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2897609333327633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6542156333328297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3054451333331201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5088129333338367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4726102666665835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4813508333333465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3278857000003335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3233812666667399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4938604999998832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.50892940000021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3579841333333567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4954220666669134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3632730333332532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.21426935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.992821300000031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.895051099999931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8358828999998975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8054177666666633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7839201333333103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3115211333335499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4534001000000132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4492579333331532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.61079896666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6293454333334398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6337377333333769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6292985666668534</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4779979333333866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3026755666663667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3295917000000734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1428069333336599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3102778666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4943961333332265</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3313338999995166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3398428000003335</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8556592666667899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5253794333331567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8682623666666534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3694935666671568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.9666081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.788346466666532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.966615100000066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2061443000000196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1866693333332465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6350109999999769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8023968333333564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9510304333333934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6344681999999735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5253572333333634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4727471666668035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9563933333335466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4924582333329066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.00687110000041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4629626666666866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4709442333332035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6459698666667066</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3143936666666933</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.32661160000043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8314379666661733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6662508000001868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6782773333336001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7016941000001633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6877297999995433</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8757953666668199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.514833949999947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.827748299999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.371665500000248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.506553499999399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.937117999999799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9457401999998147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6673291499998797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4065466999999749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6586394999998202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4749905000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6479925500002501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1546511999998703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1590439500000649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5780652000001396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4238666000006202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4582430999999403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5314733499997102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6923128499993201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0318332999994446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4291803000006595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2063263500001504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3934221000006346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3651495000005651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.02523469999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7889175499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>140.61362355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.57855704999952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.765663499999789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.582664349999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.945629100000097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.317415150000151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.368057549999946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.367712549999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.310313300000104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.165045249999906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.928319850000051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.732824399999199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.039479350000601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.218646899999548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.5451002500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.777820649999949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.93232194999965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.326760450000698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.983568150000401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.514621300000201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.766712899999952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.027608399999849</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.408556450000098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.34046379999975</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.4659051000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1264.7277445499949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1387.839080099995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672.82231159999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488.49091309999949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417.88860094999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340.85677475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>326.46412009999949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>284.366692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287.48227454999949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261.7404157499995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>236.59544704999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>237.8034365499995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>237.64914449999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234.348404649999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234.16593525000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>238.08411190000049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230.58652160000048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>229.9933427</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234.96044395000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>226.94751365000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>229.86803769999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>234.050476849999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>228.56395009999852</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>231.0730370499995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>229.92213255000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B1DA-47BB-8418-6AA27455A065}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1320117295"/>
+        <c:axId val="1320115631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1320117295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Number of workers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>(0 means plain function without pystributor)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320115631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1320115631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320117295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Execution times over worker counts, for constant amount of primes checked, with seven levels of prime difficulty, on one physical machine.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-FI" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.1401249999999902E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.647417033333266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.402284300000062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9836832333334593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1067555000001068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1277181333332735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4419723333333001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4960310333331199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6217839666664366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4775493333333198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6541096666667399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4787588666667901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4780441999998002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2924676666664601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8071132666668699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5275598999999067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4765483333330967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1473702000001234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.82456020000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4947691999999801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6630935333331667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5007116999995602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3489062333328234</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1902258333332565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6689561000004067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.8989774999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.652403033333268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.222751499999967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5229735666667068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1407563000001435</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1277075999997734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6235100666667801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6171193666668067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4409864999999502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4858258666666402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4696336666665901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6522074999998966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2897609333327633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6542156333328297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3054451333331201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5088129333338367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4726102666665835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4813508333333465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3278857000003335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3233812666667399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4938604999998832</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.50892940000021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3579841333333567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4954220666669134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3632730333332532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.21426935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.992821300000031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.895051099999931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8358828999998975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8054177666666633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7839201333333103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3115211333335499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4534001000000132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4492579333331532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.61079896666669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6293454333334398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6337377333333769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6292985666668534</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4779979333333866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3026755666663667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3295917000000734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1428069333336599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3102778666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4943961333332265</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3313338999995166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3398428000003335</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8556592666667899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5253794333331567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8682623666666534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3694935666671568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.9666081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.788346466666532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.966615100000066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2061443000000196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1866693333332465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6350109999999769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8023968333333564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9510304333333934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6344681999999735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5253572333333634</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4727471666668035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9563933333335466</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4924582333329066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.00687110000041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4629626666666866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4709442333332035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6459698666667066</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3143936666666933</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.32661160000043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8314379666661733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6662508000001868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6782773333336001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7016941000001633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6877297999995433</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8757953666668199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.514833949999947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.827748299999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.371665500000248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.506553499999399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.937117999999799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9457401999998147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6673291499998797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4065466999999749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6586394999998202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4749905000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6479925500002501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1546511999998703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1590439500000649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5780652000001396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4238666000006202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4582430999999403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5314733499997102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6923128499993201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0318332999994446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4291803000006595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2063263500001504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3934221000006346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3651495000005651</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.02523469999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7889175499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>140.61362355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.57855704999952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.765663499999789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.582664349999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.945629100000097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.317415150000151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.368057549999946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.367712549999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.310313300000104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.165045249999906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.928319850000051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.732824399999199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.039479350000601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.218646899999548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.5451002500001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.777820649999949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.93232194999965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.326760450000698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.983568150000401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.514621300000201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.766712899999952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.027608399999849</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.408556450000098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.34046379999975</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.4659051000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1264.7277445499949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1387.839080099995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672.82231159999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488.49091309999949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>417.88860094999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340.85677475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>326.46412009999949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>284.366692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287.48227454999949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261.7404157499995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>236.59544704999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>237.8034365499995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>237.64914449999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234.348404649999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234.16593525000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>238.08411190000049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230.58652160000048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>229.9933427</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234.96044395000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>226.94751365000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>229.86803769999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>234.050476849999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>228.56395009999852</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>231.0730370499995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>229.92213255000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0360-450C-A658-B3D640A9CC05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1892412607"/>
+        <c:axId val="1892402623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1892412607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Number of workers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>(0 means plain function without pystributor)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892402623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1892402623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892412607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Execution times over worker counts, for constant amount of primes checked ,with seven levels of prime difficulty, and with optimal amount of workers per physical machine.</a:t>
+            </a:r>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6853683999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.872662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3637988999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3964298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.466571199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0348036999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0453986999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2691121999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4881498999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0069165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0438871999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0569136999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0637398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0424853999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4994345999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$13:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0552282999999898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.07174239999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0470188999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8668208000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0369244999999898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0448899999999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0757580000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0449583999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7779072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0358746999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.184845299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.199516899999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.240419500000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.683843299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.154881400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$13:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>302.9267309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.348513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.4752056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.4242043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.2377506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AB6D-461E-AA32-21CE6122BC23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="74127727"/>
+        <c:axId val="74128143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74127727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74128143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74128143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74127727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Execution times over worker counts, for constant amount of primes checked ,with seven levels of prime difficulty, and with optimal amount of workers per physical machine.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6853683999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.872662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3637988999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3964298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.466571199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0348036999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0453986999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2691121999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4881498999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0069165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0438871999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0569136999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0637398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0424853999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4994345999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$13:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0552282999999898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.07174239999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0470188999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8668208000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0369244999999898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0448899999999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0757580000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0449583999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7779072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0358746999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.184845299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.199516899999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.240419500000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.683843299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.154881400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$G$13:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1PC/12 workers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2PC/24 workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3PC/28 workers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4PC/32 workers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5PC/34 workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$13:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>302.9267309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.348513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.4752056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.4242043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.2377506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D68F-41C3-9A44-33F36ECA45CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="435977823"/>
+        <c:axId val="435966591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435977823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435966591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435966591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435977823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8172,6 +13868,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -10674,6 +16530,2012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10795,16 +18657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10860,6 +18722,160 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391DF423-8986-4A6A-ADAE-D4A96F8A40AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7C9BF1-DF58-4C90-BB87-D7C31E88E8DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE56E89-A73B-4D38-9EE0-D2220B564880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A19999F-C35D-454B-92BB-80FE7A75E714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12893,8 +20909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA48325-E1D1-41C5-878E-306A9ED4A7DA}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12939,25 +20955,25 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -12970,7 +20986,7 @@
         <v>5.1401249999999902E-3</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:I4" si="0">AVERAGE(D36,D73)</f>
+        <f t="shared" ref="D4:H4" si="0">AVERAGE(D36,D73)</f>
         <v>2.8989774999999999E-2</v>
       </c>
       <c r="E4" s="4">
@@ -15628,5 +23644,299 @@
     <mergeCell ref="A3:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4A1D92-8258-4ED2-A517-16767E117EF7}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="14.08203125" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>742.94713130000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>599.78559329999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>7.6853683999999998</v>
+      </c>
+      <c r="I13">
+        <v>2.0348036999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.0438871999999901</v>
+      </c>
+      <c r="K13">
+        <v>3.0552282999999898</v>
+      </c>
+      <c r="L13">
+        <v>7.0448899999999899</v>
+      </c>
+      <c r="M13">
+        <v>34.184845299999999</v>
+      </c>
+      <c r="N13">
+        <v>302.9267309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>5.872662</v>
+      </c>
+      <c r="I14">
+        <v>3.0453986999999998</v>
+      </c>
+      <c r="J14">
+        <v>3.0569136999999902</v>
+      </c>
+      <c r="K14">
+        <v>3.07174239999999</v>
+      </c>
+      <c r="L14">
+        <v>5.0757580000000004</v>
+      </c>
+      <c r="M14">
+        <v>17.199516899999999</v>
+      </c>
+      <c r="N14">
+        <v>139.348513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>3.3637988999999999</v>
+      </c>
+      <c r="I15">
+        <v>2.2691121999999901</v>
+      </c>
+      <c r="J15">
+        <v>3.0637398</v>
+      </c>
+      <c r="K15">
+        <v>3.0470188999999901</v>
+      </c>
+      <c r="L15">
+        <v>4.0449583999999996</v>
+      </c>
+      <c r="M15">
+        <v>16.240419500000002</v>
+      </c>
+      <c r="N15">
+        <v>116.4752056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>14.3964298</v>
+      </c>
+      <c r="I16">
+        <v>2.4881498999999998</v>
+      </c>
+      <c r="J16">
+        <v>3.0424853999999999</v>
+      </c>
+      <c r="K16">
+        <v>2.8668208000000002</v>
+      </c>
+      <c r="L16">
+        <v>3.7779072</v>
+      </c>
+      <c r="M16">
+        <v>13.683843299999999</v>
+      </c>
+      <c r="N16">
+        <v>104.4242043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17">
+        <v>40.466571199999997</v>
+      </c>
+      <c r="I17">
+        <v>3.0069165</v>
+      </c>
+      <c r="J17">
+        <v>2.4994345999999901</v>
+      </c>
+      <c r="K17">
+        <v>2.0369244999999898</v>
+      </c>
+      <c r="L17">
+        <v>4.0358746999999902</v>
+      </c>
+      <c r="M17">
+        <v>13.154881400000001</v>
+      </c>
+      <c r="N17">
+        <v>109.2377506</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>